--- a/media/output/result/N/complex/lib/bpic2015_2_f2_Ncomplex_evaluation_edit_distance_lib.xlsx
+++ b/media/output/result/N/complex/lib/bpic2015_2_f2_Ncomplex_evaluation_edit_distance_lib.xlsx
@@ -1520,10 +1520,10 @@
         <v>141</v>
       </c>
       <c r="C38" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8368794326241135</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9111969111969112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1549,10 +1549,10 @@
         <v>141</v>
       </c>
       <c r="C39" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8368794326241135</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9111969111969112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1578,10 +1578,10 @@
         <v>140</v>
       </c>
       <c r="C40" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8428571428571429</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9147286821705426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1607,10 +1607,10 @@
         <v>140</v>
       </c>
       <c r="C41" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8428571428571429</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9147286821705426</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
